--- a/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="96">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -214,10 +214,10 @@
     <t xml:space="preserve">Чинзано Бьянко - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Cinzano Bianco - 1.0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чинзано Бьянко - 1.0л</t>
+    <t xml:space="preserve">Espolon Blanco - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эсполон Бланко - 0.7л</t>
   </si>
   <si>
     <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
@@ -287,13 +287,25 @@
     <t xml:space="preserve">Bushmills, Wild Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Spirits Shelf: Tequila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля полки: Текила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espolon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campari Display Any </t>
   </si>
   <si>
     <t xml:space="preserve">Кампари Дисплей</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacture: CAMPARI</t>
+    <t xml:space="preserve">Manufacturer: CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
   </si>
   <si>
     <t xml:space="preserve">Display Alcohol</t>
@@ -380,7 +392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +409,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,8 +437,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -430,39 +458,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="22" min="21" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="25" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -584,7 +616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -643,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -702,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -761,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -820,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -879,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -938,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -987,8 +1019,8 @@
       <c r="AB8" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="2" t="n">
-        <v>0.02</v>
+      <c r="AC8" s="4" t="n">
+        <v>0.01</v>
       </c>
       <c r="AJ8" s="0" t="n">
         <v>2</v>
@@ -997,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1007,10 +1039,10 @@
       <c r="C9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -1019,13 +1051,13 @@
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>8000020000013</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="6" t="n">
+        <v>721059707503</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -1046,8 +1078,8 @@
       <c r="AB9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" s="2" t="n">
-        <v>0.02</v>
+      <c r="AC9" s="4" t="n">
+        <v>0.04</v>
       </c>
       <c r="AJ9" s="0" t="n">
         <v>2</v>
@@ -1056,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1105,8 +1137,8 @@
       <c r="AB10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="2" t="n">
-        <v>0.05</v>
+      <c r="AC10" s="4" t="n">
+        <v>0.06</v>
       </c>
       <c r="AJ10" s="0" t="n">
         <v>2</v>
@@ -1115,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1164,8 +1196,8 @@
       <c r="AB11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="2" t="n">
-        <v>0.05</v>
+      <c r="AC11" s="4" t="n">
+        <v>0.03</v>
       </c>
       <c r="AJ11" s="0" t="n">
         <v>2</v>
@@ -1174,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -1221,8 +1253,8 @@
       <c r="AB12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AC12" s="2" t="n">
-        <v>0.2</v>
+      <c r="AC12" s="4" t="n">
+        <v>0.15</v>
       </c>
       <c r="AJ12" s="0" t="n">
         <v>2</v>
@@ -1231,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1253,10 +1285,10 @@
       <c r="G13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1290,7 +1322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1309,13 +1341,13 @@
       <c r="F14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="G14" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="10" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1339,8 +1371,8 @@
       <c r="AB14" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AC14" s="2" t="n">
-        <v>0.05</v>
+      <c r="AC14" s="4" t="n">
+        <v>0.03</v>
       </c>
       <c r="AJ14" s="0" t="n">
         <v>2</v>
@@ -1349,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -1368,14 +1400,14 @@
       <c r="F15" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="5" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="0"/>
       <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="9" t="s">
         <v>87</v>
       </c>
       <c r="O15" s="0" t="s">
@@ -1396,7 +1428,7 @@
       <c r="AB15" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AC15" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="AJ15" s="0" t="n">
@@ -1406,64 +1438,122 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="G16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AA16" s="0" t="s">
         <v>50</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>0.07</v>
       </c>
       <c r="AJ16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -465,32 +465,32 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="22" min="21" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="25" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1229,6 +1229,9 @@
         <v>4</v>
       </c>
       <c r="J12" s="0"/>
+      <c r="K12" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="L12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1404,6 +1407,9 @@
         <v>6</v>
       </c>
       <c r="J15" s="0"/>
+      <c r="K15" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1469,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1521,7 +1529,9 @@
       <c r="J17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>45</v>
       </c>

--- a/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Supermarket Spirits 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -320,7 +320,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -343,8 +343,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,12 +360,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -366,8 +385,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,8 +425,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,19 +446,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,19 +486,80 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,37 +571,37 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="38.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.5546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.2793522267206"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,11 +1220,11 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="1" t="n">
-        <v>8000040500012</v>
+      <c r="K10" s="9" t="n">
+        <v>4607174573314</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>45</v>
@@ -1169,11 +1279,11 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <v>5055966800022</v>
+      <c r="K11" s="10" t="n">
+        <v>5010103917087</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>45</v>
@@ -1288,10 +1398,10 @@
       <c r="G13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1347,10 +1457,10 @@
       <c r="G14" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1407,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="J15" s="0"/>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="12" t="s">
         <v>87</v>
       </c>
       <c r="O15" s="0" t="s">
@@ -1469,14 +1579,14 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="14" t="s">
         <v>90</v>
       </c>
       <c r="P16" s="0" t="s">
